--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Tshr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.77230368705534</v>
+        <v>4.7861665</v>
       </c>
       <c r="H2">
-        <v>4.77230368705534</v>
+        <v>9.572333</v>
       </c>
       <c r="I2">
-        <v>0.5502200348364286</v>
+        <v>0.532946019991573</v>
       </c>
       <c r="J2">
-        <v>0.5502200348364286</v>
+        <v>0.4470675407190008</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N2">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O2">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P2">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q2">
-        <v>3.292003835174651</v>
+        <v>3.47615683270125</v>
       </c>
       <c r="R2">
-        <v>3.292003835174651</v>
+        <v>13.904627330805</v>
       </c>
       <c r="S2">
-        <v>0.1694019959748854</v>
+        <v>0.1573430139564759</v>
       </c>
       <c r="T2">
-        <v>0.1694019959748854</v>
+        <v>0.1097707055214003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.77230368705534</v>
+        <v>4.7861665</v>
       </c>
       <c r="H3">
-        <v>4.77230368705534</v>
+        <v>9.572333</v>
       </c>
       <c r="I3">
-        <v>0.5502200348364286</v>
+        <v>0.532946019991573</v>
       </c>
       <c r="J3">
-        <v>0.5502200348364286</v>
+        <v>0.4470675407190008</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N3">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P3">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q3">
-        <v>1.394494502880038</v>
+        <v>1.954485333495334</v>
       </c>
       <c r="R3">
-        <v>1.394494502880038</v>
+        <v>11.726912000972</v>
       </c>
       <c r="S3">
-        <v>0.07175877185797731</v>
+        <v>0.08846684079754616</v>
       </c>
       <c r="T3">
-        <v>0.07175877185797731</v>
+        <v>0.09257863395462518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.77230368705534</v>
+        <v>4.7861665</v>
       </c>
       <c r="H4">
-        <v>4.77230368705534</v>
+        <v>9.572333</v>
       </c>
       <c r="I4">
-        <v>0.5502200348364286</v>
+        <v>0.532946019991573</v>
       </c>
       <c r="J4">
-        <v>0.5502200348364286</v>
+        <v>0.4470675407190008</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N4">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O4">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P4">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q4">
-        <v>0.4882432879144363</v>
+        <v>0.5128457174191667</v>
       </c>
       <c r="R4">
-        <v>0.4882432879144363</v>
+        <v>3.077074304515</v>
       </c>
       <c r="S4">
-        <v>0.02512432902122004</v>
+        <v>0.02321319053107804</v>
       </c>
       <c r="T4">
-        <v>0.02512432902122004</v>
+        <v>0.02429210142152215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.77230368705534</v>
+        <v>4.7861665</v>
       </c>
       <c r="H5">
-        <v>4.77230368705534</v>
+        <v>9.572333</v>
       </c>
       <c r="I5">
-        <v>0.5502200348364286</v>
+        <v>0.532946019991573</v>
       </c>
       <c r="J5">
-        <v>0.5502200348364286</v>
+        <v>0.4470675407190008</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N5">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O5">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P5">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q5">
-        <v>1.299442736385543</v>
+        <v>1.342617021968833</v>
       </c>
       <c r="R5">
-        <v>1.299442736385543</v>
+        <v>8.055702131813</v>
       </c>
       <c r="S5">
-        <v>0.06686753850245726</v>
+        <v>0.0607715413868957</v>
       </c>
       <c r="T5">
-        <v>0.06686753850245726</v>
+        <v>0.06359610260968906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.77230368705534</v>
+        <v>4.7861665</v>
       </c>
       <c r="H6">
-        <v>4.77230368705534</v>
+        <v>9.572333</v>
       </c>
       <c r="I6">
-        <v>0.5502200348364286</v>
+        <v>0.532946019991573</v>
       </c>
       <c r="J6">
-        <v>0.5502200348364286</v>
+        <v>0.4470675407190008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N6">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O6">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P6">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q6">
-        <v>0.944057872436354</v>
+        <v>0.9564164609173333</v>
       </c>
       <c r="R6">
-        <v>0.944057872436354</v>
+        <v>5.738498765504001</v>
       </c>
       <c r="S6">
-        <v>0.04857992150487201</v>
+        <v>0.04329075349611892</v>
       </c>
       <c r="T6">
-        <v>0.04857992150487201</v>
+        <v>0.04530283646851182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.77230368705534</v>
+        <v>4.7861665</v>
       </c>
       <c r="H7">
-        <v>4.77230368705534</v>
+        <v>9.572333</v>
       </c>
       <c r="I7">
-        <v>0.5502200348364286</v>
+        <v>0.532946019991573</v>
       </c>
       <c r="J7">
-        <v>0.5502200348364286</v>
+        <v>0.4470675407190008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N7">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O7">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P7">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q7">
-        <v>3.27423192672942</v>
+        <v>3.531779266681001</v>
       </c>
       <c r="R7">
-        <v>3.27423192672942</v>
+        <v>14.127117066724</v>
       </c>
       <c r="S7">
-        <v>0.1684874779750164</v>
+        <v>0.1598606798234582</v>
       </c>
       <c r="T7">
-        <v>0.1684874779750164</v>
+        <v>0.1115271607432524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.0947557300682958</v>
+        <v>0.04547433333333333</v>
       </c>
       <c r="H8">
-        <v>0.0947557300682958</v>
+        <v>0.136423</v>
       </c>
       <c r="I8">
-        <v>0.0109248079162579</v>
+        <v>0.005063627636391278</v>
       </c>
       <c r="J8">
-        <v>0.0109248079162579</v>
+        <v>0.006371518323433613</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N8">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O8">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P8">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q8">
-        <v>0.0653638676926024</v>
+        <v>0.0330276672425</v>
       </c>
       <c r="R8">
-        <v>0.0653638676926024</v>
+        <v>0.198166003455</v>
       </c>
       <c r="S8">
-        <v>0.003363534857843727</v>
+        <v>0.001494947713233149</v>
       </c>
       <c r="T8">
-        <v>0.003363534857843727</v>
+        <v>0.001564430422483839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.0947557300682958</v>
+        <v>0.04547433333333333</v>
       </c>
       <c r="H9">
-        <v>0.0947557300682958</v>
+        <v>0.136423</v>
       </c>
       <c r="I9">
-        <v>0.0109248079162579</v>
+        <v>0.005063627636391278</v>
       </c>
       <c r="J9">
-        <v>0.0109248079162579</v>
+        <v>0.006371518323433613</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N9">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P9">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q9">
-        <v>0.02768816767781086</v>
+        <v>0.01856995939244445</v>
       </c>
       <c r="R9">
-        <v>0.02768816767781086</v>
+        <v>0.167129634532</v>
       </c>
       <c r="S9">
-        <v>0.001424795080549967</v>
+        <v>0.0008405412990489458</v>
       </c>
       <c r="T9">
-        <v>0.001424795080549967</v>
+        <v>0.001319412412835181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.0947557300682958</v>
+        <v>0.04547433333333333</v>
       </c>
       <c r="H10">
-        <v>0.0947557300682958</v>
+        <v>0.136423</v>
       </c>
       <c r="I10">
-        <v>0.0109248079162579</v>
+        <v>0.005063627636391278</v>
       </c>
       <c r="J10">
-        <v>0.0109248079162579</v>
+        <v>0.006371518323433613</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N10">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O10">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P10">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q10">
-        <v>0.009694238303141976</v>
+        <v>0.004872650607222223</v>
       </c>
       <c r="R10">
-        <v>0.009694238303141976</v>
+        <v>0.043853855465</v>
       </c>
       <c r="S10">
-        <v>0.0004988521885854098</v>
+        <v>0.0002205532055644992</v>
       </c>
       <c r="T10">
-        <v>0.0004988521885854098</v>
+        <v>0.0003462062333423123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.0947557300682958</v>
+        <v>0.04547433333333333</v>
       </c>
       <c r="H11">
-        <v>0.0947557300682958</v>
+        <v>0.136423</v>
       </c>
       <c r="I11">
-        <v>0.0109248079162579</v>
+        <v>0.005063627636391278</v>
       </c>
       <c r="J11">
-        <v>0.0109248079162579</v>
+        <v>0.006371518323433613</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N11">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O11">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P11">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q11">
-        <v>0.02580088218235982</v>
+        <v>0.01275647514477778</v>
       </c>
       <c r="R11">
-        <v>0.02580088218235982</v>
+        <v>0.114808276303</v>
       </c>
       <c r="S11">
-        <v>0.001327677961035161</v>
+        <v>0.0005774026729342068</v>
       </c>
       <c r="T11">
-        <v>0.001327677961035161</v>
+        <v>0.0009063590982805979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.0947557300682958</v>
+        <v>0.04547433333333333</v>
       </c>
       <c r="H12">
-        <v>0.0947557300682958</v>
+        <v>0.136423</v>
       </c>
       <c r="I12">
-        <v>0.0109248079162579</v>
+        <v>0.005063627636391278</v>
       </c>
       <c r="J12">
-        <v>0.0109248079162579</v>
+        <v>0.006371518323433613</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N12">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O12">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P12">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q12">
-        <v>0.01874459355385769</v>
+        <v>0.009087105713777778</v>
       </c>
       <c r="R12">
-        <v>0.01874459355385769</v>
+        <v>0.081783951424</v>
       </c>
       <c r="S12">
-        <v>0.0009645710396303352</v>
+        <v>0.0004113141811371746</v>
       </c>
       <c r="T12">
-        <v>0.0009645710396303352</v>
+        <v>0.0006456470809721922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.0947557300682958</v>
+        <v>0.04547433333333333</v>
       </c>
       <c r="H13">
-        <v>0.0947557300682958</v>
+        <v>0.136423</v>
       </c>
       <c r="I13">
-        <v>0.0109248079162579</v>
+        <v>0.005063627636391278</v>
       </c>
       <c r="J13">
-        <v>0.0109248079162579</v>
+        <v>0.006371518323433613</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N13">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O13">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P13">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q13">
-        <v>0.06501100034176666</v>
+        <v>0.03355614720733333</v>
       </c>
       <c r="R13">
-        <v>0.06501100034176666</v>
+        <v>0.201336883244</v>
       </c>
       <c r="S13">
-        <v>0.003345376788613297</v>
+        <v>0.001518868564473303</v>
       </c>
       <c r="T13">
-        <v>0.003345376788613297</v>
+        <v>0.001589463075519491</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.1258363813581</v>
+        <v>0.05363866666666667</v>
       </c>
       <c r="H14">
-        <v>3.1258363813581</v>
+        <v>0.160916</v>
       </c>
       <c r="I14">
-        <v>0.3603915248120054</v>
+        <v>0.00597273703655204</v>
       </c>
       <c r="J14">
-        <v>0.3603915248120054</v>
+        <v>0.007515442722514849</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N14">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O14">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P14">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q14">
-        <v>2.156246967993928</v>
+        <v>0.03895736131</v>
       </c>
       <c r="R14">
-        <v>2.156246967993928</v>
+        <v>0.23374416786</v>
       </c>
       <c r="S14">
-        <v>0.110957507488319</v>
+        <v>0.00176334640216551</v>
       </c>
       <c r="T14">
-        <v>0.110957507488319</v>
+        <v>0.00184530384073367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.1258363813581</v>
+        <v>0.05363866666666667</v>
       </c>
       <c r="H15">
-        <v>3.1258363813581</v>
+        <v>0.160916</v>
       </c>
       <c r="I15">
-        <v>0.3603915248120054</v>
+        <v>0.00597273703655204</v>
       </c>
       <c r="J15">
-        <v>0.3603915248120054</v>
+        <v>0.007515442722514849</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N15">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P15">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q15">
-        <v>0.9133873149208398</v>
+        <v>0.02190395743822222</v>
       </c>
       <c r="R15">
-        <v>0.9133873149208398</v>
+        <v>0.197135616944</v>
       </c>
       <c r="S15">
-        <v>0.04700165673941952</v>
+        <v>0.0009914497091968373</v>
       </c>
       <c r="T15">
-        <v>0.04700165673941952</v>
+        <v>0.001556295989853515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.1258363813581</v>
+        <v>0.05363866666666667</v>
       </c>
       <c r="H16">
-        <v>3.1258363813581</v>
+        <v>0.160916</v>
       </c>
       <c r="I16">
-        <v>0.3603915248120054</v>
+        <v>0.00597273703655204</v>
       </c>
       <c r="J16">
-        <v>0.3603915248120054</v>
+        <v>0.007515442722514849</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N16">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O16">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P16">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q16">
-        <v>0.3197970482173015</v>
+        <v>0.005747472531111113</v>
       </c>
       <c r="R16">
-        <v>0.3197970482173015</v>
+        <v>0.05172725278000001</v>
       </c>
       <c r="S16">
-        <v>0.0164563168778974</v>
+        <v>0.0002601507049882861</v>
       </c>
       <c r="T16">
-        <v>0.0164563168778974</v>
+        <v>0.0004083631223804748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.1258363813581</v>
+        <v>0.05363866666666667</v>
       </c>
       <c r="H17">
-        <v>3.1258363813581</v>
+        <v>0.160916</v>
       </c>
       <c r="I17">
-        <v>0.3603915248120054</v>
+        <v>0.00597273703655204</v>
       </c>
       <c r="J17">
-        <v>0.3603915248120054</v>
+        <v>0.007515442722514849</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N17">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O17">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P17">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q17">
-        <v>0.8511288566783852</v>
+        <v>0.01504673665288889</v>
       </c>
       <c r="R17">
-        <v>0.8511288566783852</v>
+        <v>0.135420629876</v>
       </c>
       <c r="S17">
-        <v>0.04379792198677415</v>
+        <v>0.0006810679175643463</v>
       </c>
       <c r="T17">
-        <v>0.04379792198677415</v>
+        <v>0.001069084250155184</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.1258363813581</v>
+        <v>0.05363866666666667</v>
       </c>
       <c r="H18">
-        <v>3.1258363813581</v>
+        <v>0.160916</v>
       </c>
       <c r="I18">
-        <v>0.3603915248120054</v>
+        <v>0.00597273703655204</v>
       </c>
       <c r="J18">
-        <v>0.3603915248120054</v>
+        <v>0.007515442722514849</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N18">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O18">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P18">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q18">
-        <v>0.6183534488329934</v>
+        <v>0.01071857900088889</v>
       </c>
       <c r="R18">
-        <v>0.6183534488329934</v>
+        <v>0.096467211008</v>
       </c>
       <c r="S18">
-        <v>0.03181961920305781</v>
+        <v>0.000485160367180531</v>
       </c>
       <c r="T18">
-        <v>0.03181961920305781</v>
+        <v>0.0007615647338185004</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.1258363813581</v>
+        <v>0.05363866666666667</v>
       </c>
       <c r="H19">
-        <v>3.1258363813581</v>
+        <v>0.160916</v>
       </c>
       <c r="I19">
-        <v>0.3603915248120054</v>
+        <v>0.00597273703655204</v>
       </c>
       <c r="J19">
-        <v>0.3603915248120054</v>
+        <v>0.007515442722514849</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N19">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O19">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P19">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q19">
-        <v>2.144606451876952</v>
+        <v>0.03958072307466667</v>
       </c>
       <c r="R19">
-        <v>2.144606451876952</v>
+        <v>0.237484338448</v>
       </c>
       <c r="S19">
-        <v>0.1103585025165375</v>
+        <v>0.001791561935456528</v>
       </c>
       <c r="T19">
-        <v>0.1103585025165375</v>
+        <v>0.001874830785573506</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.680550068450514</v>
+        <v>0.1596326666666667</v>
       </c>
       <c r="H20">
-        <v>0.680550068450514</v>
+        <v>0.478898</v>
       </c>
       <c r="I20">
-        <v>0.07846363243530807</v>
+        <v>0.01777531023223731</v>
       </c>
       <c r="J20">
-        <v>0.07846363243530807</v>
+        <v>0.02236651724456807</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N20">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O20">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P20">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q20">
-        <v>0.4694532415119299</v>
+        <v>0.115940008555</v>
       </c>
       <c r="R20">
-        <v>0.4694532415119299</v>
+        <v>0.69564005133</v>
       </c>
       <c r="S20">
-        <v>0.02415741904042519</v>
+        <v>0.005247850215666923</v>
       </c>
       <c r="T20">
-        <v>0.02415741904042519</v>
+        <v>0.005491761656514412</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.680550068450514</v>
+        <v>0.1596326666666667</v>
       </c>
       <c r="H21">
-        <v>0.680550068450514</v>
+        <v>0.478898</v>
       </c>
       <c r="I21">
-        <v>0.07846363243530807</v>
+        <v>0.01777531023223731</v>
       </c>
       <c r="J21">
-        <v>0.07846363243530807</v>
+        <v>0.02236651724456807</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N21">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P21">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q21">
-        <v>0.1988606324369211</v>
+        <v>0.06518780860355557</v>
       </c>
       <c r="R21">
-        <v>0.1988606324369211</v>
+        <v>0.586690277432</v>
       </c>
       <c r="S21">
-        <v>0.01023309502124419</v>
+        <v>0.002950628171436942</v>
       </c>
       <c r="T21">
-        <v>0.01023309502124419</v>
+        <v>0.004631652768828882</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.680550068450514</v>
+        <v>0.1596326666666667</v>
       </c>
       <c r="H22">
-        <v>0.680550068450514</v>
+        <v>0.478898</v>
       </c>
       <c r="I22">
-        <v>0.07846363243530807</v>
+        <v>0.01777531023223731</v>
       </c>
       <c r="J22">
-        <v>0.07846363243530807</v>
+        <v>0.02236651724456807</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N22">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O22">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P22">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q22">
-        <v>0.06962549426851272</v>
+        <v>0.01710490628777778</v>
       </c>
       <c r="R22">
-        <v>0.06962549426851272</v>
+        <v>0.15394415659</v>
       </c>
       <c r="S22">
-        <v>0.00358283230833425</v>
+        <v>0.0007742278724146773</v>
       </c>
       <c r="T22">
-        <v>0.00358283230833425</v>
+        <v>0.001215319064491813</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.680550068450514</v>
+        <v>0.1596326666666667</v>
       </c>
       <c r="H23">
-        <v>0.680550068450514</v>
+        <v>0.478898</v>
       </c>
       <c r="I23">
-        <v>0.07846363243530807</v>
+        <v>0.01777531023223731</v>
       </c>
       <c r="J23">
-        <v>0.07846363243530807</v>
+        <v>0.02236651724456807</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N23">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O23">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P23">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q23">
-        <v>0.185305860897626</v>
+        <v>0.04478020886422222</v>
       </c>
       <c r="R23">
-        <v>0.185305860897626</v>
+        <v>0.403021879778</v>
       </c>
       <c r="S23">
-        <v>0.009535585094552884</v>
+        <v>0.002026908844277327</v>
       </c>
       <c r="T23">
-        <v>0.009535585094552884</v>
+        <v>0.003181674347055715</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.680550068450514</v>
+        <v>0.1596326666666667</v>
       </c>
       <c r="H24">
-        <v>0.680550068450514</v>
+        <v>0.478898</v>
       </c>
       <c r="I24">
-        <v>0.07846363243530807</v>
+        <v>0.01777531023223731</v>
       </c>
       <c r="J24">
-        <v>0.07846363243530807</v>
+        <v>0.02236651724456807</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N24">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O24">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P24">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q24">
-        <v>0.1346265225011773</v>
+        <v>0.03189928935822222</v>
       </c>
       <c r="R24">
-        <v>0.1346265225011773</v>
+        <v>0.287093604224</v>
       </c>
       <c r="S24">
-        <v>0.006927695945909292</v>
+        <v>0.001443873384387021</v>
       </c>
       <c r="T24">
-        <v>0.006927695945909292</v>
+        <v>0.002266473364340477</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1596326666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.478898</v>
+      </c>
+      <c r="I25">
+        <v>0.01777531023223731</v>
+      </c>
+      <c r="J25">
+        <v>0.02236651724456807</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7379140000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.475828</v>
+      </c>
+      <c r="O25">
+        <v>0.29995660691112</v>
+      </c>
+      <c r="P25">
+        <v>0.2494637847424299</v>
+      </c>
+      <c r="Q25">
+        <v>0.1177951795906667</v>
+      </c>
+      <c r="R25">
+        <v>0.706771077544</v>
+      </c>
+      <c r="S25">
+        <v>0.005331821744054416</v>
+      </c>
+      <c r="T25">
+        <v>0.005579636043336778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.191466333333333</v>
+      </c>
+      <c r="H26">
+        <v>9.574399</v>
+      </c>
+      <c r="I26">
+        <v>0.3553740306124115</v>
+      </c>
+      <c r="J26">
+        <v>0.4471640314636422</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.7262925</v>
+      </c>
+      <c r="N26">
+        <v>1.452585</v>
+      </c>
+      <c r="O26">
+        <v>0.2952325527432663</v>
+      </c>
+      <c r="P26">
+        <v>0.2455349483544712</v>
+      </c>
+      <c r="Q26">
+        <v>2.3179380619025</v>
+      </c>
+      <c r="R26">
+        <v>13.907628371415</v>
+      </c>
+      <c r="S26">
+        <v>0.1049179822363659</v>
+      </c>
+      <c r="T26">
+        <v>0.1097943973714025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.191466333333333</v>
+      </c>
+      <c r="H27">
+        <v>9.574399</v>
+      </c>
+      <c r="I27">
+        <v>0.3553740306124115</v>
+      </c>
+      <c r="J27">
+        <v>0.4471640314636422</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.4083613333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.225084</v>
+      </c>
+      <c r="O27">
+        <v>0.1659958747772335</v>
+      </c>
+      <c r="P27">
+        <v>0.2070797486342548</v>
+      </c>
+      <c r="Q27">
+        <v>1.303271447168444</v>
+      </c>
+      <c r="R27">
+        <v>11.729443024516</v>
+      </c>
+      <c r="S27">
+        <v>0.05899062308461862</v>
+      </c>
+      <c r="T27">
+        <v>0.09259861523377104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.191466333333333</v>
+      </c>
+      <c r="H28">
+        <v>9.574399</v>
+      </c>
+      <c r="I28">
+        <v>0.3553740306124115</v>
+      </c>
+      <c r="J28">
+        <v>0.4471640314636422</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.1071516666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.321455</v>
+      </c>
+      <c r="O28">
+        <v>0.04355636342203116</v>
+      </c>
+      <c r="P28">
+        <v>0.05433653577813798</v>
+      </c>
+      <c r="Q28">
+        <v>0.3419709367272223</v>
+      </c>
+      <c r="R28">
+        <v>3.077738430545</v>
+      </c>
+      <c r="S28">
+        <v>0.01547880042810622</v>
+      </c>
+      <c r="T28">
+        <v>0.02429734439432061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.191466333333333</v>
+      </c>
+      <c r="H29">
+        <v>9.574399</v>
+      </c>
+      <c r="I29">
+        <v>0.3553740306124115</v>
+      </c>
+      <c r="J29">
+        <v>0.4471640314636422</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.2805203333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.841561</v>
+      </c>
+      <c r="O29">
+        <v>0.1140294497139816</v>
+      </c>
+      <c r="P29">
+        <v>0.1422516662860605</v>
+      </c>
+      <c r="Q29">
+        <v>0.8952711996487777</v>
+      </c>
+      <c r="R29">
+        <v>8.057440796839</v>
+      </c>
+      <c r="S29">
+        <v>0.04052310515337294</v>
+      </c>
+      <c r="T29">
+        <v>0.06360982857889548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.191466333333333</v>
+      </c>
+      <c r="H30">
+        <v>9.574399</v>
+      </c>
+      <c r="I30">
+        <v>0.3553740306124115</v>
+      </c>
+      <c r="J30">
+        <v>0.4471640314636422</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1998293333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.599488</v>
+      </c>
+      <c r="O30">
+        <v>0.08122915243236724</v>
+      </c>
+      <c r="P30">
+        <v>0.1013333162046457</v>
+      </c>
+      <c r="Q30">
+        <v>0.6377485897457777</v>
+      </c>
+      <c r="R30">
+        <v>5.739737307712</v>
+      </c>
+      <c r="S30">
+        <v>0.02886673130312032</v>
+      </c>
+      <c r="T30">
+        <v>0.04531261419564939</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.191466333333333</v>
+      </c>
+      <c r="H31">
+        <v>9.574399</v>
+      </c>
+      <c r="I31">
+        <v>0.3553740306124115</v>
+      </c>
+      <c r="J31">
+        <v>0.4471640314636422</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7379140000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.475828</v>
+      </c>
+      <c r="O31">
+        <v>0.29995660691112</v>
+      </c>
+      <c r="P31">
+        <v>0.2494637847424299</v>
+      </c>
+      <c r="Q31">
+        <v>2.355027687895333</v>
+      </c>
+      <c r="R31">
+        <v>14.130166127372</v>
+      </c>
+      <c r="S31">
+        <v>0.1065967884068275</v>
+      </c>
+      <c r="T31">
+        <v>0.1115512316896032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7442055</v>
+      </c>
+      <c r="H32">
+        <v>1.488411</v>
+      </c>
+      <c r="I32">
+        <v>0.08286827449083489</v>
+      </c>
+      <c r="J32">
+        <v>0.0695149495268404</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.7262925</v>
+      </c>
+      <c r="N32">
+        <v>1.452585</v>
+      </c>
+      <c r="O32">
+        <v>0.2952325527432663</v>
+      </c>
+      <c r="P32">
+        <v>0.2455349483544712</v>
+      </c>
+      <c r="Q32">
+        <v>0.54051087310875</v>
+      </c>
+      <c r="R32">
+        <v>2.162043492435</v>
+      </c>
+      <c r="S32">
+        <v>0.02446541221935888</v>
+      </c>
+      <c r="T32">
+        <v>0.01706834954193643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7442055</v>
+      </c>
+      <c r="H33">
+        <v>1.488411</v>
+      </c>
+      <c r="I33">
+        <v>0.08286827449083489</v>
+      </c>
+      <c r="J33">
+        <v>0.0695149495268404</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.4083613333333334</v>
+      </c>
+      <c r="N33">
+        <v>1.225084</v>
+      </c>
+      <c r="O33">
+        <v>0.1659958747772335</v>
+      </c>
+      <c r="P33">
+        <v>0.2070797486342548</v>
+      </c>
+      <c r="Q33">
+        <v>0.303904750254</v>
+      </c>
+      <c r="R33">
+        <v>1.823428501524</v>
+      </c>
+      <c r="S33">
+        <v>0.01375579171538605</v>
+      </c>
+      <c r="T33">
+        <v>0.01439513827434102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7442055</v>
+      </c>
+      <c r="H34">
+        <v>1.488411</v>
+      </c>
+      <c r="I34">
+        <v>0.08286827449083489</v>
+      </c>
+      <c r="J34">
+        <v>0.0695149495268404</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.1071516666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.321455</v>
+      </c>
+      <c r="O34">
+        <v>0.04355636342203116</v>
+      </c>
+      <c r="P34">
+        <v>0.05433653577813798</v>
+      </c>
+      <c r="Q34">
+        <v>0.07974285966750001</v>
+      </c>
+      <c r="R34">
+        <v>0.478457158005</v>
+      </c>
+      <c r="S34">
+        <v>0.003609440679879439</v>
+      </c>
+      <c r="T34">
+        <v>0.003777201542080619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.680550068450514</v>
-      </c>
-      <c r="H25">
-        <v>0.680550068450514</v>
-      </c>
-      <c r="I25">
-        <v>0.07846363243530807</v>
-      </c>
-      <c r="J25">
-        <v>0.07846363243530807</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.686090437959895</v>
-      </c>
-      <c r="N25">
-        <v>0.686090437959895</v>
-      </c>
-      <c r="O25">
-        <v>0.3062183623050095</v>
-      </c>
-      <c r="P25">
-        <v>0.3062183623050095</v>
-      </c>
-      <c r="Q25">
-        <v>0.4669188945168497</v>
-      </c>
-      <c r="R25">
-        <v>0.4669188945168497</v>
-      </c>
-      <c r="S25">
-        <v>0.02402700502484226</v>
-      </c>
-      <c r="T25">
-        <v>0.02402700502484226</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7442055</v>
+      </c>
+      <c r="H35">
+        <v>1.488411</v>
+      </c>
+      <c r="I35">
+        <v>0.08286827449083489</v>
+      </c>
+      <c r="J35">
+        <v>0.0695149495268404</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.2805203333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.841561</v>
+      </c>
+      <c r="O35">
+        <v>0.1140294497139816</v>
+      </c>
+      <c r="P35">
+        <v>0.1422516662860605</v>
+      </c>
+      <c r="Q35">
+        <v>0.2087647749285</v>
+      </c>
+      <c r="R35">
+        <v>1.252588649571</v>
+      </c>
+      <c r="S35">
+        <v>0.009449423738937082</v>
+      </c>
+      <c r="T35">
+        <v>0.009888617401984438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7442055</v>
+      </c>
+      <c r="H36">
+        <v>1.488411</v>
+      </c>
+      <c r="I36">
+        <v>0.08286827449083489</v>
+      </c>
+      <c r="J36">
+        <v>0.0695149495268404</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1998293333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.599488</v>
+      </c>
+      <c r="O36">
+        <v>0.08122915243236724</v>
+      </c>
+      <c r="P36">
+        <v>0.1013333162046457</v>
+      </c>
+      <c r="Q36">
+        <v>0.148714088928</v>
+      </c>
+      <c r="R36">
+        <v>0.892284533568</v>
+      </c>
+      <c r="S36">
+        <v>0.006731319700423277</v>
+      </c>
+      <c r="T36">
+        <v>0.007044180361353303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7442055</v>
+      </c>
+      <c r="H37">
+        <v>1.488411</v>
+      </c>
+      <c r="I37">
+        <v>0.08286827449083489</v>
+      </c>
+      <c r="J37">
+        <v>0.0695149495268404</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.7379140000000001</v>
+      </c>
+      <c r="N37">
+        <v>1.475828</v>
+      </c>
+      <c r="O37">
+        <v>0.29995660691112</v>
+      </c>
+      <c r="P37">
+        <v>0.2494637847424299</v>
+      </c>
+      <c r="Q37">
+        <v>0.549159657327</v>
+      </c>
+      <c r="R37">
+        <v>2.196638629308</v>
+      </c>
+      <c r="S37">
+        <v>0.02485688643685016</v>
+      </c>
+      <c r="T37">
+        <v>0.0173414624051446</v>
       </c>
     </row>
   </sheetData>
